--- a/Pandas/Pandas_by_Saradhi/Data Sets/student_marks.xlsx
+++ b/Pandas/Pandas_by_Saradhi/Data Sets/student_marks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9a5cfb028adffd5/Desktop/Python/Pandas/Data Sets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9a5cfb028adffd5/Desktop/Python/Git/myprojects/Pandas/Pandas_by_Saradhi/Data Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{7A2C4CA8-0AC6-4CFB-93D2-1A3C0DE041CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19102571-5160-40AA-A1BC-71CCE3B4CFEA}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{7A2C4CA8-0AC6-4CFB-93D2-1A3C0DE041CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EED6569F-37D5-4766-8DDE-13755EB9F90A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="markssheet" sheetId="2" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,7 +674,7 @@
         <v>98</v>
       </c>
       <c r="E2" s="6">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6">
         <v>91</v>
@@ -700,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="6">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E3" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F3" s="6">
         <v>20</v>
@@ -729,10 +729,10 @@
         <v>80</v>
       </c>
       <c r="D4" s="6">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E4" s="6">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6">
         <v>50</v>
@@ -741,7 +741,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="6">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I4" s="6">
         <v>1125</v>
@@ -758,19 +758,19 @@
         <v>30</v>
       </c>
       <c r="D5" s="6">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E5" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6">
         <v>30</v>
       </c>
       <c r="H5" s="6">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I5" s="6">
         <v>1126</v>
@@ -787,19 +787,19 @@
         <v>60</v>
       </c>
       <c r="D6" s="6">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G6" s="6">
         <v>60</v>
       </c>
       <c r="H6" s="6">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="I6" s="6">
         <v>1127</v>
@@ -813,22 +813,22 @@
         <v>14</v>
       </c>
       <c r="C7" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6">
         <v>40</v>
       </c>
       <c r="F7" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6">
         <v>40</v>
       </c>
       <c r="H7" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I7" s="6">
         <v>1128</v>
@@ -842,22 +842,22 @@
         <v>15</v>
       </c>
       <c r="C8" s="6">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
       </c>
       <c r="E8" s="6">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6">
         <v>50</v>
       </c>
       <c r="H8" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I8" s="6">
         <v>1129</v>
@@ -877,16 +877,16 @@
         <v>45</v>
       </c>
       <c r="E9" s="6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" s="6">
         <v>45</v>
       </c>
       <c r="H9" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6">
         <v>1130</v>
@@ -903,19 +903,19 @@
         <v>40</v>
       </c>
       <c r="D10" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6">
         <v>40</v>
       </c>
       <c r="H10" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6">
         <v>1131</v>
@@ -932,19 +932,19 @@
         <v>33</v>
       </c>
       <c r="D11" s="6">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G11" s="6">
         <v>33</v>
       </c>
       <c r="H11" s="6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I11" s="6">
         <v>1132</v>
@@ -961,19 +961,19 @@
         <v>32</v>
       </c>
       <c r="D12" s="6">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
         <v>32</v>
       </c>
       <c r="F12" s="6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G12" s="6">
         <v>32</v>
       </c>
       <c r="H12" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="6">
         <v>1133</v>
@@ -990,19 +990,19 @@
         <v>31</v>
       </c>
       <c r="D13" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6">
         <v>31</v>
       </c>
       <c r="F13" s="6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G13" s="6">
         <v>31</v>
       </c>
       <c r="H13" s="6">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I13" s="6">
         <v>1134</v>
@@ -1019,19 +1019,19 @@
         <v>30</v>
       </c>
       <c r="D14" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E14" s="6">
         <v>30</v>
       </c>
       <c r="F14" s="6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G14" s="6">
         <v>30</v>
       </c>
       <c r="H14" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I14" s="6">
         <v>1135</v>
@@ -1048,13 +1048,13 @@
         <v>29</v>
       </c>
       <c r="D15" s="6">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6">
         <v>29</v>
       </c>
       <c r="F15" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6">
         <v>29</v>
@@ -1077,13 +1077,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="6">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6">
         <v>28</v>
       </c>
       <c r="F16" s="6">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6">
         <v>28</v>
@@ -1106,13 +1106,13 @@
         <v>27</v>
       </c>
       <c r="D17" s="6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6">
         <v>27</v>
       </c>
       <c r="F17" s="6">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G17" s="6">
         <v>27</v>
@@ -1135,16 +1135,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6">
         <v>26</v>
       </c>
       <c r="F18" s="6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G18" s="6">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="H18" s="6">
         <v>26</v>
@@ -1164,16 +1164,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19" s="6">
         <v>25</v>
       </c>
       <c r="F19" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G19" s="6">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6">
         <v>25</v>
@@ -1193,19 +1193,19 @@
         <v>24</v>
       </c>
       <c r="D20" s="6">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6">
         <v>24</v>
       </c>
       <c r="F20" s="6">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G20" s="6">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="H20" s="6">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I20" s="6">
         <v>1141</v>
@@ -1222,19 +1222,19 @@
         <v>23</v>
       </c>
       <c r="D21" s="6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E21" s="6">
         <v>23</v>
       </c>
       <c r="F21" s="6">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G21" s="6">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H21" s="6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I21" s="6">
         <v>1142</v>
@@ -1251,19 +1251,19 @@
         <v>22</v>
       </c>
       <c r="D22" s="6">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E22" s="6">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="G22" s="6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H22" s="6">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I22" s="6">
         <v>1143</v>
@@ -1280,19 +1280,19 @@
         <v>21</v>
       </c>
       <c r="D23" s="6">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E23" s="6">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F23" s="6">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="G23" s="6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H23" s="6">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I23" s="6">
         <v>1144</v>
@@ -1309,19 +1309,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E24" s="6">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F24" s="6">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="G24" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H24" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I24" s="6">
         <v>1145</v>
@@ -1338,19 +1338,19 @@
         <v>19</v>
       </c>
       <c r="D25" s="6">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F25" s="6">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G25" s="6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H25" s="6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I25" s="6">
         <v>1146</v>
@@ -1367,19 +1367,19 @@
         <v>18</v>
       </c>
       <c r="D26" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E26" s="6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F26" s="6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G26" s="6">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H26" s="6">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I26" s="6">
         <v>1147</v>
@@ -1396,19 +1396,19 @@
         <v>17</v>
       </c>
       <c r="D27" s="6">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E27" s="6">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G27" s="6">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H27" s="6">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I27" s="6">
         <v>1148</v>
@@ -1425,19 +1425,19 @@
         <v>16</v>
       </c>
       <c r="D28" s="6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F28" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G28" s="6">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H28" s="6">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I28" s="6">
         <v>1149</v>
@@ -1454,19 +1454,19 @@
         <v>15</v>
       </c>
       <c r="D29" s="6">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E29" s="6">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F29" s="6">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G29" s="6">
         <v>15</v>
       </c>
       <c r="H29" s="6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I29" s="6">
         <v>1150</v>
@@ -1483,19 +1483,19 @@
         <v>14</v>
       </c>
       <c r="D30" s="6">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E30" s="6">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F30" s="6">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G30" s="6">
         <v>14</v>
       </c>
       <c r="H30" s="6">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I30" s="6">
         <v>1151</v>
@@ -1512,19 +1512,19 @@
         <v>86</v>
       </c>
       <c r="D31" s="6">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E31" s="6">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F31" s="6">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G31" s="6">
         <v>65</v>
       </c>
       <c r="H31" s="6">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I31" s="6">
         <v>1152</v>
@@ -2553,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22A7A9A-8E58-4CFD-8DE7-2C3D540425A8}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
